--- a/public/upload/data_3/NON-vien/ptxh nang mem2019.xlsx
+++ b/public/upload/data_3/NON-vien/ptxh nang mem2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_QUALIFICATION\1_REPORT\NON BETALACTAM\VS NON VIÊN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmp\public\upload\data_3\NON-vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="5520" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="5520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="18002" sheetId="3" r:id="rId1"/>
@@ -198,18 +198,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -239,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,9 +252,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,6 +698,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -731,8 +791,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-599151600"/>
-        <c:axId val="-599148336"/>
+        <c:axId val="123228136"/>
+        <c:axId val="123230488"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1151,11 +1211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-599144528"/>
-        <c:axId val="-599151056"/>
+        <c:axId val="123227744"/>
+        <c:axId val="123227352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-599151600"/>
+        <c:axId val="123228136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-599148336"/>
+        <c:crossAx val="123230488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-599148336"/>
+        <c:axId val="123230488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1310,13 +1370,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-599151600"/>
+        <c:crossAx val="123228136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-599151056"/>
+        <c:axId val="123227352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,12 +1386,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-599144528"/>
+        <c:crossAx val="123227744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-599144528"/>
+        <c:axId val="123227744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-599151056"/>
+        <c:crossAx val="123227352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1651,8 +1711,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-394531776"/>
-        <c:axId val="-394530144"/>
+        <c:axId val="125505640"/>
+        <c:axId val="125501328"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1801,11 +1861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-393566656"/>
-        <c:axId val="-394529600"/>
+        <c:axId val="125500544"/>
+        <c:axId val="125498584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-394531776"/>
+        <c:axId val="125505640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394530144"/>
+        <c:crossAx val="125501328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-394530144"/>
+        <c:axId val="125501328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1960,13 +2020,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394531776"/>
+        <c:crossAx val="125505640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-394529600"/>
+        <c:axId val="125498584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,12 +2036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-393566656"/>
+        <c:crossAx val="125500544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-393566656"/>
+        <c:axId val="125500544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-394529600"/>
+        <c:crossAx val="125498584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2551,6 +2611,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>11</c:v>
                 </c:pt>
@@ -2727,6 +2856,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>9</c:v>
                 </c:pt>
@@ -2751,8 +2949,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-226457088"/>
-        <c:axId val="-226461440"/>
+        <c:axId val="124230824"/>
+        <c:axId val="124226512"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3171,11 +3369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-226460896"/>
-        <c:axId val="-226463072"/>
+        <c:axId val="124230040"/>
+        <c:axId val="124227688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-226457088"/>
+        <c:axId val="124230824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-226461440"/>
+        <c:crossAx val="124226512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3281,7 +3479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-226461440"/>
+        <c:axId val="124226512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -3330,13 +3528,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-226457088"/>
+        <c:crossAx val="124230824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-226463072"/>
+        <c:axId val="124227688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,12 +3544,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-226460896"/>
+        <c:crossAx val="124230040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-226460896"/>
+        <c:axId val="124230040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,7 +3617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-226463072"/>
+        <c:crossAx val="124227688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3930,6 +4128,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4106,6 +4373,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4130,8 +4466,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377417632"/>
-        <c:axId val="-377417088"/>
+        <c:axId val="124228080"/>
+        <c:axId val="124232000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4550,11 +4886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377423072"/>
-        <c:axId val="-377413824"/>
+        <c:axId val="124229256"/>
+        <c:axId val="124229648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-377417632"/>
+        <c:axId val="124228080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,7 +4988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377417088"/>
+        <c:crossAx val="124232000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4660,7 +4996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377417088"/>
+        <c:axId val="124232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -4709,13 +5045,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377417632"/>
+        <c:crossAx val="124228080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-377413824"/>
+        <c:axId val="124229648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,12 +5061,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377423072"/>
+        <c:crossAx val="124229256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-377423072"/>
+        <c:axId val="124229256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4798,7 +5134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377413824"/>
+        <c:crossAx val="124229648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5309,6 +5645,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5485,6 +5890,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5509,8 +5983,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377419264"/>
-        <c:axId val="-377420352"/>
+        <c:axId val="124231216"/>
+        <c:axId val="124231608"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5757,6 +6231,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6185,11 +6728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377414912"/>
-        <c:axId val="-377413280"/>
+        <c:axId val="124228472"/>
+        <c:axId val="124224944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-377419264"/>
+        <c:axId val="124231216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,7 +6830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377420352"/>
+        <c:crossAx val="124231608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6295,7 +6838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377420352"/>
+        <c:axId val="124231608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -6344,13 +6887,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377419264"/>
+        <c:crossAx val="124231216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-377413280"/>
+        <c:axId val="124224944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6360,12 +6903,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377414912"/>
+        <c:crossAx val="124228472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-377414912"/>
+        <c:axId val="124228472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +6976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377413280"/>
+        <c:crossAx val="124224944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6945,6 +7488,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7121,6 +7733,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7145,8 +7826,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-226460352"/>
-        <c:axId val="-226456544"/>
+        <c:axId val="124225336"/>
+        <c:axId val="124228864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7565,11 +8246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-226461984"/>
-        <c:axId val="-226458720"/>
+        <c:axId val="124226120"/>
+        <c:axId val="124225728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-226460352"/>
+        <c:axId val="124225336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,7 +8348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-226456544"/>
+        <c:crossAx val="124228864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7675,7 +8356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-226456544"/>
+        <c:axId val="124228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -7724,13 +8405,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-226460352"/>
+        <c:crossAx val="124225336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-226458720"/>
+        <c:axId val="124225728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7740,12 +8421,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-226461984"/>
+        <c:crossAx val="124226120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-226461984"/>
+        <c:axId val="124226120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7813,7 +8494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-226458720"/>
+        <c:crossAx val="124225728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8324,6 +9005,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8348,8 +9098,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-599143984"/>
-        <c:axId val="-395910736"/>
+        <c:axId val="125220544"/>
+        <c:axId val="125217800"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8768,11 +9518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395912912"/>
-        <c:axId val="-395908560"/>
+        <c:axId val="125223288"/>
+        <c:axId val="125219760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-599143984"/>
+        <c:axId val="125220544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8870,7 +9620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395910736"/>
+        <c:crossAx val="125217800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8878,7 +9628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-395910736"/>
+        <c:axId val="125217800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -8927,13 +9677,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-599143984"/>
+        <c:crossAx val="125220544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-395908560"/>
+        <c:axId val="125219760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8943,12 +9693,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-395912912"/>
+        <c:crossAx val="125223288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-395912912"/>
+        <c:axId val="125223288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9016,7 +9766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-395908560"/>
+        <c:crossAx val="125219760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9518,6 +10268,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
@@ -9694,6 +10513,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
@@ -9718,8 +10606,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377424160"/>
-        <c:axId val="-377422528"/>
+        <c:axId val="125223680"/>
+        <c:axId val="125220936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9898,6 +10786,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
@@ -10326,11 +11283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377412192"/>
-        <c:axId val="-377414368"/>
+        <c:axId val="125222896"/>
+        <c:axId val="125221328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-377424160"/>
+        <c:axId val="125223680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10428,7 +11385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377422528"/>
+        <c:crossAx val="125220936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10436,7 +11393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377422528"/>
+        <c:axId val="125220936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -10485,13 +11442,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377424160"/>
+        <c:crossAx val="125223680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-377414368"/>
+        <c:axId val="125221328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10501,12 +11458,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377412192"/>
+        <c:crossAx val="125222896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-377412192"/>
+        <c:axId val="125222896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10574,7 +11531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377414368"/>
+        <c:crossAx val="125221328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11086,6 +12043,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
@@ -11110,8 +12136,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395912368"/>
-        <c:axId val="-395905840"/>
+        <c:axId val="125224464"/>
+        <c:axId val="125217408"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11386,11 +12412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395911824"/>
-        <c:axId val="-395913456"/>
+        <c:axId val="125222112"/>
+        <c:axId val="125221720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-395912368"/>
+        <c:axId val="125224464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11488,7 +12514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395905840"/>
+        <c:crossAx val="125217408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11496,7 +12522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-395905840"/>
+        <c:axId val="125217408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -11545,13 +12571,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395912368"/>
+        <c:crossAx val="125224464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-395913456"/>
+        <c:axId val="125221720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11561,12 +12587,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-395911824"/>
+        <c:crossAx val="125222112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-395911824"/>
+        <c:axId val="125222112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11634,7 +12660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-395913456"/>
+        <c:crossAx val="125221720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -12136,6 +13162,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
@@ -12312,6 +13407,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>9</c:v>
                 </c:pt>
@@ -12336,8 +13500,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395903664"/>
-        <c:axId val="-395901488"/>
+        <c:axId val="125222504"/>
+        <c:axId val="125224856"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12612,11 +13776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395909648"/>
-        <c:axId val="-395906384"/>
+        <c:axId val="125218584"/>
+        <c:axId val="125218192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-395903664"/>
+        <c:axId val="125222504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12714,7 +13878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395901488"/>
+        <c:crossAx val="125224856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12722,7 +13886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-395901488"/>
+        <c:axId val="125224856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -12771,13 +13935,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395903664"/>
+        <c:crossAx val="125222504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-395906384"/>
+        <c:axId val="125218192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12787,12 +13951,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-395909648"/>
+        <c:crossAx val="125218584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-395909648"/>
+        <c:axId val="125218584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12860,7 +14024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-395906384"/>
+        <c:crossAx val="125218192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -19019,16 +20183,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19045,13 +20209,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
       </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
@@ -19059,11 +20226,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3">
@@ -19073,11 +20243,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4">
@@ -19087,13 +20260,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
         <v>12</v>
       </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
       <c r="D5">
         <v>20</v>
       </c>
@@ -19101,13 +20277,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
       <c r="D6">
         <v>20</v>
       </c>
@@ -19115,13 +20294,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
       <c r="D7">
         <v>20</v>
       </c>
@@ -19129,13 +20311,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>20</v>
       </c>
@@ -19143,13 +20328,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>20</v>
       </c>
@@ -19157,13 +20345,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
       </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
       <c r="D10">
         <v>20</v>
       </c>
@@ -19171,13 +20362,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>20</v>
       </c>
@@ -19185,13 +20379,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
       <c r="D12">
         <v>20</v>
       </c>
@@ -19199,13 +20396,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
       </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
       <c r="D13">
         <v>20</v>
       </c>
@@ -19213,13 +20413,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
         <v>5</v>
       </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
       <c r="D14">
         <v>20</v>
       </c>
@@ -19227,13 +20430,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
       </c>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15">
         <v>20</v>
       </c>
@@ -19241,13 +20447,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>20</v>
       </c>
@@ -19255,13 +20464,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
       <c r="D17">
         <v>20</v>
       </c>
@@ -19269,13 +20481,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
       <c r="D18">
         <v>20</v>
       </c>
@@ -19283,13 +20498,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
       <c r="D19">
         <v>20</v>
       </c>
@@ -19297,13 +20515,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
       <c r="D20">
         <v>20</v>
       </c>
@@ -19311,13 +20532,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
       <c r="D21">
         <v>20</v>
       </c>
@@ -19325,13 +20549,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22">
         <v>20</v>
       </c>
@@ -19339,13 +20566,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
       <c r="B23" s="1">
         <v>10</v>
       </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
       <c r="D23">
         <v>20</v>
       </c>
@@ -19353,13 +20583,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
       <c r="D24">
         <v>20</v>
       </c>
@@ -19367,7 +20600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
@@ -19382,7 +20615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
@@ -19397,7 +20630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -19412,7 +20645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -19421,7 +20654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -19445,12 +20678,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19464,7 +20697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43752</v>
       </c>
@@ -19478,7 +20711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43782</v>
       </c>
@@ -19492,7 +20725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43812</v>
       </c>
@@ -19506,28 +20739,28 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12">
         <v>20</v>
@@ -19536,7 +20769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -19545,7 +20778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -19566,15 +20799,15 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D2" sqref="D2:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19597,8 +20830,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
@@ -19607,7 +20840,12 @@
       <c r="C2" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
@@ -19615,8 +20853,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
@@ -19625,7 +20863,12 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
       <c r="F3">
         <v>20</v>
       </c>
@@ -19633,8 +20876,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
@@ -19643,7 +20886,12 @@
       <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
       <c r="F4">
         <v>20</v>
       </c>
@@ -19651,8 +20899,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
@@ -19661,7 +20909,12 @@
       <c r="C5" s="5">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
       <c r="F5">
         <v>20</v>
       </c>
@@ -19669,8 +20922,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
@@ -19679,7 +20932,12 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>20</v>
       </c>
@@ -19687,8 +20945,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
@@ -19697,7 +20955,12 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
@@ -19705,8 +20968,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
@@ -19715,7 +20978,12 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>20</v>
       </c>
@@ -19723,8 +20991,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
@@ -19733,7 +21001,12 @@
       <c r="C9" s="5">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5">
+        <v>17</v>
+      </c>
       <c r="F9">
         <v>20</v>
       </c>
@@ -19741,8 +21014,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
@@ -19751,7 +21024,12 @@
       <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
       <c r="F10">
         <v>20</v>
       </c>
@@ -19759,8 +21037,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
@@ -19769,7 +21047,12 @@
       <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
       <c r="F11">
         <v>20</v>
       </c>
@@ -19777,8 +21060,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
@@ -19787,7 +21070,12 @@
       <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
       <c r="F12">
         <v>20</v>
       </c>
@@ -19795,8 +21083,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
@@ -19805,7 +21093,12 @@
       <c r="C13" s="5">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
       <c r="F13">
         <v>20</v>
       </c>
@@ -19813,8 +21106,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
@@ -19823,7 +21116,12 @@
       <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
       <c r="F14">
         <v>20</v>
       </c>
@@ -19831,8 +21129,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
@@ -19841,7 +21139,12 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
       <c r="F15">
         <v>20</v>
       </c>
@@ -19849,7 +21152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -19859,7 +21162,12 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
       <c r="F16">
         <v>20</v>
       </c>
@@ -19867,7 +21175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
@@ -19877,7 +21185,12 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
       <c r="F17">
         <v>20</v>
       </c>
@@ -19885,7 +21198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
@@ -19895,7 +21208,12 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
       <c r="F18">
         <v>20</v>
       </c>
@@ -19903,7 +21221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
@@ -19913,7 +21231,12 @@
       <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
       <c r="F19">
         <v>20</v>
       </c>
@@ -19921,7 +21244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
@@ -19931,7 +21254,12 @@
       <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
       <c r="F20">
         <v>20</v>
       </c>
@@ -19939,7 +21267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
@@ -19949,7 +21277,12 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>20</v>
       </c>
@@ -19957,7 +21290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
@@ -19967,7 +21300,12 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22">
         <v>20</v>
       </c>
@@ -19975,7 +21313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
@@ -19985,7 +21323,12 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="1">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23">
         <v>20</v>
       </c>
@@ -19993,7 +21336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
@@ -20003,7 +21346,12 @@
       <c r="C24" s="1">
         <v>9</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
       <c r="F24">
         <v>20</v>
       </c>
@@ -20011,7 +21359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
@@ -20030,7 +21378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
@@ -20049,7 +21397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -20068,7 +21416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -20081,7 +21429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -20105,16 +21453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -20137,8 +21485,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
@@ -20147,7 +21495,12 @@
       <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
@@ -20155,8 +21508,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
@@ -20165,7 +21518,12 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>20</v>
       </c>
@@ -20173,8 +21531,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
@@ -20183,7 +21541,12 @@
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
       <c r="F4">
         <v>20</v>
       </c>
@@ -20191,8 +21554,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
@@ -20201,7 +21564,12 @@
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>20</v>
       </c>
@@ -20209,8 +21577,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
@@ -20219,7 +21587,12 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>20</v>
       </c>
@@ -20227,8 +21600,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
@@ -20237,7 +21610,12 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
@@ -20245,8 +21623,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
@@ -20255,7 +21633,12 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>20</v>
       </c>
@@ -20263,8 +21646,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
@@ -20273,7 +21656,12 @@
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
       <c r="F9">
         <v>20</v>
       </c>
@@ -20281,8 +21669,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
@@ -20291,7 +21679,12 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
       <c r="F10">
         <v>20</v>
       </c>
@@ -20299,8 +21692,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
@@ -20309,7 +21702,12 @@
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
       <c r="F11">
         <v>20</v>
       </c>
@@ -20317,8 +21715,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
@@ -20327,7 +21725,12 @@
       <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
       <c r="F12">
         <v>20</v>
       </c>
@@ -20335,8 +21738,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
@@ -20345,7 +21748,12 @@
       <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>20</v>
       </c>
@@ -20353,8 +21761,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
@@ -20363,7 +21771,12 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
       <c r="F14">
         <v>20</v>
       </c>
@@ -20371,8 +21784,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
@@ -20381,7 +21794,12 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
       <c r="F15">
         <v>20</v>
       </c>
@@ -20389,7 +21807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -20399,7 +21817,12 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16">
         <v>20</v>
       </c>
@@ -20407,7 +21830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
@@ -20417,7 +21840,12 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
       <c r="F17">
         <v>20</v>
       </c>
@@ -20425,7 +21853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
@@ -20435,7 +21863,12 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18">
         <v>20</v>
       </c>
@@ -20443,7 +21876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
@@ -20453,7 +21886,12 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19">
         <v>20</v>
       </c>
@@ -20461,7 +21899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
@@ -20471,7 +21909,12 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>20</v>
       </c>
@@ -20479,7 +21922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
@@ -20489,7 +21932,12 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>20</v>
       </c>
@@ -20497,7 +21945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
@@ -20507,7 +21955,12 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22">
         <v>20</v>
       </c>
@@ -20515,7 +21968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
@@ -20525,7 +21978,12 @@
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
       <c r="F23">
         <v>20</v>
       </c>
@@ -20533,7 +21991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
@@ -20543,7 +22001,12 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24">
         <v>20</v>
       </c>
@@ -20551,7 +22014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
@@ -20570,7 +22033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
@@ -20589,7 +22052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -20608,7 +22071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -20621,7 +22084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -20645,16 +22108,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -20683,8 +22146,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
@@ -20696,7 +22159,15 @@
       <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
       <c r="H2">
         <v>20</v>
       </c>
@@ -20704,8 +22175,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
@@ -20717,7 +22188,15 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
       <c r="H3">
         <v>20</v>
       </c>
@@ -20725,8 +22204,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
@@ -20738,7 +22217,15 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>20</v>
       </c>
@@ -20746,8 +22233,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
@@ -20759,7 +22246,15 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
       <c r="H5">
         <v>20</v>
       </c>
@@ -20767,8 +22262,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
@@ -20780,7 +22275,15 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>20</v>
       </c>
@@ -20788,8 +22291,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
@@ -20801,7 +22304,15 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>20</v>
       </c>
@@ -20809,8 +22320,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
@@ -20822,7 +22333,15 @@
       <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>20</v>
       </c>
@@ -20830,8 +22349,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
@@ -20843,7 +22362,15 @@
       <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>20</v>
       </c>
@@ -20851,8 +22378,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
@@ -20864,7 +22391,15 @@
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
       <c r="H10">
         <v>20</v>
       </c>
@@ -20872,8 +22407,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
@@ -20885,7 +22420,15 @@
       <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
       <c r="H11">
         <v>20</v>
       </c>
@@ -20893,8 +22436,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
@@ -20906,7 +22449,15 @@
       <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6</v>
+      </c>
       <c r="H12">
         <v>20</v>
       </c>
@@ -20914,8 +22465,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
@@ -20927,7 +22478,15 @@
       <c r="D13" s="5">
         <v>6</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6</v>
+      </c>
       <c r="H13">
         <v>20</v>
       </c>
@@ -20935,8 +22494,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
@@ -20948,7 +22507,15 @@
       <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
       <c r="H14">
         <v>20</v>
       </c>
@@ -20956,8 +22523,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
@@ -20969,7 +22536,15 @@
       <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>20</v>
       </c>
@@ -20977,7 +22552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -20990,7 +22565,15 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16">
         <v>20</v>
       </c>
@@ -20998,7 +22581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
@@ -21011,7 +22594,15 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17">
         <v>20</v>
       </c>
@@ -21019,7 +22610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
@@ -21032,7 +22623,15 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18">
         <v>20</v>
       </c>
@@ -21040,7 +22639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
@@ -21053,7 +22652,15 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19">
         <v>20</v>
       </c>
@@ -21061,7 +22668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
@@ -21074,7 +22681,15 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20">
         <v>20</v>
       </c>
@@ -21082,7 +22697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
@@ -21095,7 +22710,15 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21">
         <v>20</v>
       </c>
@@ -21103,7 +22726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
@@ -21116,7 +22739,15 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22">
         <v>20</v>
       </c>
@@ -21124,7 +22755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
@@ -21137,7 +22768,15 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23">
         <v>20</v>
       </c>
@@ -21145,7 +22784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
@@ -21158,7 +22797,15 @@
       <c r="D24" s="1">
         <v>6</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
       <c r="H24">
         <v>20</v>
       </c>
@@ -21166,7 +22813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
@@ -21189,13 +22836,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2">
         <v>5</v>
       </c>
@@ -21212,13 +22859,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2">
         <v>1</v>
       </c>
@@ -21235,7 +22882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -21252,7 +22899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -21280,16 +22927,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21312,8 +22959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
@@ -21322,7 +22969,12 @@
       <c r="C2" s="5">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
@@ -21330,8 +22982,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
@@ -21340,7 +22992,12 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>20</v>
       </c>
@@ -21348,8 +23005,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
@@ -21358,7 +23015,12 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>20</v>
       </c>
@@ -21366,8 +23028,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
@@ -21376,7 +23038,12 @@
       <c r="C5" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
       <c r="F5">
         <v>20</v>
       </c>
@@ -21384,8 +23051,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
@@ -21394,7 +23061,12 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>20</v>
       </c>
@@ -21402,8 +23074,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
@@ -21412,7 +23084,12 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
@@ -21420,8 +23097,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
@@ -21430,7 +23107,12 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
       <c r="F8">
         <v>20</v>
       </c>
@@ -21438,8 +23120,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
@@ -21448,7 +23130,12 @@
       <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
       <c r="F9">
         <v>20</v>
       </c>
@@ -21456,8 +23143,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
@@ -21466,7 +23153,12 @@
       <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
       <c r="F10">
         <v>20</v>
       </c>
@@ -21474,8 +23166,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
@@ -21484,7 +23176,12 @@
       <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7</v>
+      </c>
       <c r="F11">
         <v>20</v>
       </c>
@@ -21492,8 +23189,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
@@ -21502,7 +23199,12 @@
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
       <c r="F12">
         <v>20</v>
       </c>
@@ -21510,8 +23212,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
@@ -21520,7 +23222,12 @@
       <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
       <c r="F13">
         <v>20</v>
       </c>
@@ -21528,8 +23235,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
@@ -21538,7 +23245,12 @@
       <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
       <c r="F14">
         <v>20</v>
       </c>
@@ -21546,8 +23258,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
@@ -21556,7 +23268,12 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
       <c r="F15">
         <v>20</v>
       </c>
@@ -21564,7 +23281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -21574,7 +23291,12 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16">
         <v>20</v>
       </c>
@@ -21582,7 +23304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
@@ -21592,7 +23314,12 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17">
         <v>20</v>
       </c>
@@ -21600,7 +23327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
@@ -21610,7 +23337,12 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
       <c r="F18">
         <v>20</v>
       </c>
@@ -21618,7 +23350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
@@ -21628,7 +23360,12 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19">
         <v>20</v>
       </c>
@@ -21636,7 +23373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
@@ -21646,7 +23383,12 @@
       <c r="C20" s="1">
         <v>5</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
       <c r="F20">
         <v>20</v>
       </c>
@@ -21654,7 +23396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
@@ -21664,7 +23406,12 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>20</v>
       </c>
@@ -21672,7 +23419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
@@ -21682,7 +23429,12 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22">
         <v>20</v>
       </c>
@@ -21690,7 +23442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
@@ -21700,7 +23452,12 @@
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="1">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
       <c r="F23">
         <v>20</v>
       </c>
@@ -21708,7 +23465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
@@ -21718,7 +23475,12 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
       <c r="F24">
         <v>20</v>
       </c>
@@ -21726,7 +23488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
@@ -21745,7 +23507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
@@ -21764,7 +23526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -21783,7 +23545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -21796,7 +23558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -21820,16 +23582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21846,13 +23608,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
         <v>20</v>
       </c>
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
@@ -21860,13 +23625,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
       </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
       <c r="D3">
         <v>20</v>
       </c>
@@ -21874,11 +23642,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4">
@@ -21888,13 +23659,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
         <v>13</v>
       </c>
+      <c r="C5" s="5">
+        <v>13</v>
+      </c>
       <c r="D5">
         <v>20</v>
       </c>
@@ -21902,11 +23676,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6">
@@ -21916,11 +23693,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7">
@@ -21930,11 +23710,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8">
@@ -21944,13 +23727,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>20</v>
       </c>
@@ -21958,13 +23744,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
       </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
       <c r="D10">
         <v>20</v>
       </c>
@@ -21972,11 +23761,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11">
@@ -21986,13 +23778,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
       <c r="D12">
         <v>20</v>
       </c>
@@ -22000,11 +23795,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
         <v>0</v>
       </c>
       <c r="D13">
@@ -22014,13 +23812,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
         <v>7</v>
       </c>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
       <c r="D14">
         <v>20</v>
       </c>
@@ -22028,11 +23829,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
         <v>0</v>
       </c>
       <c r="D15">
@@ -22042,13 +23846,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
       <c r="D16">
         <v>20</v>
       </c>
@@ -22056,13 +23863,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
       <c r="D17">
         <v>20</v>
       </c>
@@ -22070,13 +23880,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
       <c r="D18">
         <v>20</v>
       </c>
@@ -22084,13 +23897,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
       <c r="D19">
         <v>20</v>
       </c>
@@ -22098,13 +23914,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
       <c r="D20">
         <v>20</v>
       </c>
@@ -22112,13 +23931,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
       <c r="D21">
         <v>20</v>
       </c>
@@ -22126,13 +23948,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22">
         <v>20</v>
       </c>
@@ -22140,13 +23965,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
       <c r="D23">
         <v>20</v>
       </c>
@@ -22154,13 +23982,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
       <c r="D24">
         <v>20</v>
       </c>
@@ -22168,11 +23999,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2">
         <v>1</v>
       </c>
@@ -22183,11 +24014,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="2">
         <v>1</v>
       </c>
@@ -22198,7 +24029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -22212,7 +24043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -22221,7 +24052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -22241,26 +24072,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -22279,8 +24110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
@@ -22292,7 +24123,15 @@
       <c r="D2" s="5">
         <v>12</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>12</v>
+      </c>
       <c r="H2">
         <v>20</v>
       </c>
@@ -22300,8 +24139,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
@@ -22313,7 +24152,15 @@
       <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
       <c r="H3">
         <v>20</v>
       </c>
@@ -22321,8 +24168,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
@@ -22334,7 +24181,15 @@
       <c r="D4" s="5">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8</v>
+      </c>
       <c r="H4">
         <v>20</v>
       </c>
@@ -22342,8 +24197,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
@@ -22355,7 +24210,15 @@
       <c r="D5" s="5">
         <v>8</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
       <c r="H5">
         <v>20</v>
       </c>
@@ -22363,8 +24226,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
@@ -22376,7 +24239,15 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>20</v>
       </c>
@@ -22384,8 +24255,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
@@ -22397,7 +24268,15 @@
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>20</v>
       </c>
@@ -22405,8 +24284,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
@@ -22418,7 +24297,15 @@
       <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
       <c r="H8">
         <v>20</v>
       </c>
@@ -22426,8 +24313,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
@@ -22439,7 +24326,15 @@
       <c r="D9" s="5">
         <v>17</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>17</v>
+      </c>
       <c r="H9">
         <v>20</v>
       </c>
@@ -22447,8 +24342,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
@@ -22460,7 +24355,15 @@
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
       <c r="H10">
         <v>20</v>
       </c>
@@ -22468,8 +24371,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
@@ -22481,7 +24384,15 @@
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
       <c r="H11">
         <v>20</v>
       </c>
@@ -22489,8 +24400,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
@@ -22502,7 +24413,15 @@
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
       <c r="H12">
         <v>20</v>
       </c>
@@ -22510,8 +24429,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
@@ -22523,7 +24442,15 @@
       <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
       <c r="H13">
         <v>20</v>
       </c>
@@ -22531,8 +24458,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
@@ -22544,7 +24471,15 @@
       <c r="D14" s="5">
         <v>16</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>16</v>
+      </c>
       <c r="H14">
         <v>20</v>
       </c>
@@ -22552,8 +24487,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
@@ -22565,7 +24500,15 @@
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
       <c r="H15">
         <v>20</v>
       </c>
@@ -22573,7 +24516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -22586,7 +24529,15 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16">
         <v>20</v>
       </c>
@@ -22594,7 +24545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
@@ -22607,7 +24558,15 @@
       <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
       <c r="H17">
         <v>20</v>
       </c>
@@ -22615,7 +24574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
@@ -22628,7 +24587,15 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18">
         <v>20</v>
       </c>
@@ -22636,7 +24603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
@@ -22649,7 +24616,15 @@
       <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
       <c r="H19">
         <v>20</v>
       </c>
@@ -22657,7 +24632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
@@ -22670,7 +24645,15 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
       <c r="H20">
         <v>20</v>
       </c>
@@ -22678,7 +24661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
@@ -22691,7 +24674,15 @@
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
       <c r="H21">
         <v>20</v>
       </c>
@@ -22699,7 +24690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
@@ -22712,7 +24703,15 @@
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
       <c r="H22">
         <v>20</v>
       </c>
@@ -22720,7 +24719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
@@ -22733,7 +24732,15 @@
       <c r="D23" s="1">
         <v>19</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="1">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>19</v>
+      </c>
       <c r="H23">
         <v>20</v>
       </c>
@@ -22741,7 +24748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
@@ -22754,7 +24761,15 @@
       <c r="D24" s="1">
         <v>11</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="1">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11</v>
+      </c>
       <c r="H24">
         <v>20</v>
       </c>
@@ -22762,7 +24777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
@@ -22785,13 +24800,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2">
         <v>9</v>
       </c>
@@ -22808,13 +24823,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -22831,7 +24846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -22848,7 +24863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -22876,20 +24891,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -22902,13 +24917,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
@@ -22916,201 +24934,267 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -23124,7 +25208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -23133,7 +25217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -23153,23 +25237,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -23185,8 +25269,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43130</v>
       </c>
       <c r="B2" s="5">
@@ -23195,7 +25279,12 @@
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
@@ -23203,8 +25292,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43152</v>
       </c>
       <c r="B3" s="5">
@@ -23213,10 +25302,15 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43181</v>
       </c>
       <c r="B4" s="5">
@@ -23225,10 +25319,15 @@
       <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43214</v>
       </c>
       <c r="B5" s="5">
@@ -23237,10 +25336,15 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43232</v>
       </c>
       <c r="B6" s="5">
@@ -23249,10 +25353,15 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43233</v>
       </c>
       <c r="B7" s="5">
@@ -23261,10 +25370,15 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43234</v>
       </c>
       <c r="B8" s="5">
@@ -23273,10 +25387,15 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43269</v>
       </c>
       <c r="B9" s="5">
@@ -23285,10 +25404,15 @@
       <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="D9" s="5">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43299</v>
       </c>
       <c r="B10" s="5">
@@ -23297,10 +25421,15 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="D10" s="5">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43328</v>
       </c>
       <c r="B11" s="5">
@@ -23309,10 +25438,15 @@
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43356</v>
       </c>
       <c r="B12" s="5">
@@ -23321,10 +25455,15 @@
       <c r="C12" s="5">
         <v>14</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43390</v>
       </c>
       <c r="B13" s="5">
@@ -23333,10 +25472,15 @@
       <c r="C13" s="5">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43418</v>
       </c>
       <c r="B14" s="5">
@@ -23345,9 +25489,15 @@
       <c r="C14" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43446</v>
       </c>
       <c r="B15" s="5">
@@ -23356,8 +25506,14 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -23367,8 +25523,14 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43504</v>
       </c>
@@ -23378,8 +25540,14 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43536</v>
       </c>
@@ -23389,8 +25557,14 @@
       <c r="C18" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43567</v>
       </c>
@@ -23400,8 +25574,14 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43599</v>
       </c>
@@ -23411,8 +25591,14 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43626</v>
       </c>
@@ -23422,10 +25608,14 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43655</v>
       </c>
@@ -23435,10 +25625,14 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43686</v>
       </c>
@@ -23448,10 +25642,14 @@
       <c r="C23" s="1">
         <v>11</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43717</v>
       </c>
@@ -23461,15 +25659,19 @@
       <c r="C24" s="1">
         <v>17</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43752</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2">
         <v>5</v>
       </c>
@@ -23477,12 +25679,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43782</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2">
         <v>3</v>
       </c>
@@ -23490,7 +25692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43812</v>
       </c>
@@ -23507,7 +25709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -23520,7 +25722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
